--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64073.9275777548</v>
+        <v>12642170.96666584</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64073.9275777548</v>
+        <v>12642170.96666584</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48444.8936200543</v>
+        <v>6015564.697925158</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48444.8936200543</v>
+        <v>6015564.697925158</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609835037.85296</v>
+        <v>61290649.79814418</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13283.52281414202</v>
+        <v>1422505.694807082</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25679.82959282671</v>
+        <v>2709216.944972019</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38076.13637151139</v>
+        <v>3995928.195136957</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51834.16922195567</v>
+        <v>5081455.226719899</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64974.66090337056</v>
+        <v>6256432.484586116</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78103.60454353043</v>
+        <v>7432982.603062541</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91230.86774715398</v>
+        <v>8787196.992663153</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104171.2380214846</v>
+        <v>10104219.68933447</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118253.0460952563</v>
+        <v>11084290.70301681</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>130468.7920459956</v>
+        <v>12396801.847411</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>142690.837996735</v>
+        <v>13708409.57180519</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>155043.8970833579</v>
+        <v>15001850.11260189</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>167396.9561699809</v>
+        <v>16295290.65339859</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182339.812489091</v>
+        <v>17226777.19931864</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201808.1288594789</v>
+        <v>17387459.88922725</v>
       </c>
     </row>
   </sheetData>
